--- a/HybridOfActiTime/data/ActiTimeTestData.xlsx
+++ b/HybridOfActiTime/data/ActiTimeTestData.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17220" windowHeight="4404" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="validInput" sheetId="1" r:id="rId1"/>
     <sheet name="invalidInput" sheetId="2" r:id="rId2"/>
+    <sheet name="createUserDetails" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>username</t>
   </si>
@@ -56,6 +57,24 @@
   </si>
   <si>
     <t>man</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>hp12</t>
+  </si>
+  <si>
+    <t>pass12</t>
+  </si>
+  <si>
+    <t>Pavillion</t>
+  </si>
+  <si>
+    <t>Gaming</t>
   </si>
 </sst>
 </file>
@@ -391,7 +410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -508,4 +527,52 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>